--- a/Output/df.xlsx
+++ b/Output/df.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>46.61</v>
+        <v>21.4</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H2">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I2">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J2">
-        <v>46.61</v>
+        <v>21.4</v>
       </c>
       <c r="K2">
-        <v>46.66859465277082</v>
+        <v>21.90332229568472</v>
       </c>
       <c r="L2">
-        <v>46.55140534722918</v>
+        <v>20.89667770431528</v>
       </c>
       <c r="M2">
-        <v>2.929732638541083</v>
+        <v>4.194352464039319</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>46.52</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H3">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I3">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J3">
-        <v>46.565</v>
+        <v>21.7</v>
       </c>
       <c r="K3">
-        <v>46.69728756555322</v>
+        <v>22.21881274720911</v>
       </c>
       <c r="L3">
-        <v>46.43271243444677</v>
+        <v>21.18118725279088</v>
       </c>
       <c r="M3">
-        <v>6.614378277661359</v>
+        <v>4.323439560075956</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>46.63</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H4">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I4">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J4">
-        <v>46.58666666666667</v>
+        <v>21.46666666666667</v>
       </c>
       <c r="K4">
-        <v>46.70229538282316</v>
+        <v>21.93889542479137</v>
       </c>
       <c r="L4">
-        <v>46.47103795051017</v>
+        <v>20.99443790854196</v>
       </c>
       <c r="M4">
-        <v>5.781435807824664</v>
+        <v>3.935239651039198</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>46.34</v>
+        <v>22.1</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H5">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I5">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J5">
-        <v>46.525</v>
+        <v>21.625</v>
       </c>
       <c r="K5">
-        <v>46.63693748255164</v>
+        <v>22.16072380943915</v>
       </c>
       <c r="L5">
-        <v>46.41306251744835</v>
+        <v>21.08927619056085</v>
       </c>
       <c r="M5">
-        <v>5.596874127582296</v>
+        <v>4.464365078659624</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>46.49</v>
+        <v>21.3</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H6">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I6">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J6">
-        <v>46.518</v>
+        <v>21.56</v>
       </c>
       <c r="K6">
-        <v>46.80975332046097</v>
+        <v>22.35183331579317</v>
       </c>
       <c r="L6">
-        <v>46.22624667953903</v>
+        <v>20.76816668420683</v>
       </c>
       <c r="M6">
-        <v>14.58766602304848</v>
+        <v>6.598610964943052</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>46.59</v>
+        <v>22.2</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H7">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I7">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J7">
-        <v>46.514</v>
+        <v>21.72</v>
       </c>
       <c r="K7">
-        <v>46.78303531366718</v>
+        <v>23.08930639376291</v>
       </c>
       <c r="L7">
-        <v>46.24496468633281</v>
+        <v>20.35069360623708</v>
       </c>
       <c r="M7">
-        <v>13.45176568335944</v>
+        <v>11.41088661469096</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>45.91</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H8">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I8">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J8">
-        <v>46.392</v>
+        <v>21.92</v>
       </c>
       <c r="K8">
-        <v>46.66439676943753</v>
+        <v>23.26424700111252</v>
       </c>
       <c r="L8">
-        <v>46.11960323056248</v>
+        <v>20.57575299888748</v>
       </c>
       <c r="M8">
-        <v>13.61983847187638</v>
+        <v>11.20205834260431</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>46.49</v>
+        <v>19.4</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H9">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I9">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J9">
-        <v>46.364</v>
+        <v>21.6</v>
       </c>
       <c r="K9">
-        <v>46.63551427218472</v>
+        <v>22.95904378148756</v>
       </c>
       <c r="L9">
-        <v>46.09248572781527</v>
+        <v>20.24095621851244</v>
       </c>
       <c r="M9">
-        <v>13.57571360923622</v>
+        <v>11.32536484572964</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>46.47</v>
+        <v>21.7</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H10">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I10">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J10">
-        <v>46.38999999999999</v>
+        <v>21.52</v>
       </c>
       <c r="K10">
-        <v>46.65149569786136</v>
+        <v>23.03888116717537</v>
       </c>
       <c r="L10">
-        <v>46.12850430213863</v>
+        <v>20.00111883282463</v>
       </c>
       <c r="M10">
-        <v>13.07478489306817</v>
+        <v>12.65734305979471</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>46.48</v>
+        <v>22.1</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H11">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I11">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J11">
-        <v>46.38799999999999</v>
+        <v>21.68</v>
       </c>
       <c r="K11">
-        <v>46.54064337522473</v>
+        <v>22.91571841452654</v>
       </c>
       <c r="L11">
-        <v>46.23535662477525</v>
+        <v>20.44428158547345</v>
       </c>
       <c r="M11">
-        <v>7.632168761237068</v>
+        <v>10.29765345438787</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>46.53</v>
+        <v>19.9</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H12">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I12">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J12">
-        <v>46.37599999999998</v>
+        <v>21.22</v>
       </c>
       <c r="K12">
-        <v>46.52576648490231</v>
+        <v>22.08775572599666</v>
       </c>
       <c r="L12">
-        <v>46.22623351509765</v>
+        <v>20.35224427400333</v>
       </c>
       <c r="M12">
-        <v>7.488324245116473</v>
+        <v>7.231297716638885</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>46.83</v>
+        <v>21.8</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H13">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I13">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J13">
-        <v>46.55999999999999</v>
+        <v>20.98</v>
       </c>
       <c r="K13">
-        <v>46.70096098751072</v>
+        <v>21.96843310345212</v>
       </c>
       <c r="L13">
-        <v>46.41903901248926</v>
+        <v>19.99156689654787</v>
       </c>
       <c r="M13">
-        <v>7.048049375536536</v>
+        <v>8.236942528767727</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>46.52</v>
+        <v>21.2</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H14">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I14">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J14">
-        <v>46.56599999999999</v>
+        <v>21.34</v>
       </c>
       <c r="K14">
-        <v>46.69201587201618</v>
+        <v>22.50318528188762</v>
       </c>
       <c r="L14">
-        <v>46.4399841279838</v>
+        <v>20.17681471811237</v>
       </c>
       <c r="M14">
-        <v>6.300793600809484</v>
+        <v>9.693210682396902</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>46.63</v>
+        <v>22.4</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G15">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H15">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I15">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J15">
-        <v>46.59799999999998</v>
+        <v>21.48</v>
       </c>
       <c r="K15">
-        <v>46.71745710527213</v>
+        <v>22.13954529791365</v>
       </c>
       <c r="L15">
-        <v>46.47854289472784</v>
+        <v>20.82045470208635</v>
       </c>
       <c r="M15">
-        <v>5.972855263607357</v>
+        <v>5.496210815947075</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>46.67</v>
+        <v>22.9</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H16">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I16">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J16">
-        <v>46.63599999999998</v>
+        <v>21.64</v>
       </c>
       <c r="K16">
-        <v>46.72846621004452</v>
+        <v>22.44187280786918</v>
       </c>
       <c r="L16">
-        <v>46.54353378995544</v>
+        <v>20.83812719213082</v>
       </c>
       <c r="M16">
-        <v>4.623310502227085</v>
+        <v>6.68227339890984</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>46.76</v>
+        <v>21.7</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H17">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I17">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J17">
-        <v>46.68199999999999</v>
+        <v>21.99999999999999</v>
       </c>
       <c r="K17">
-        <v>46.73704543577809</v>
+        <v>22.81853527718724</v>
       </c>
       <c r="L17">
-        <v>46.62695456422189</v>
+        <v>21.18146472281274</v>
       </c>
       <c r="M17">
-        <v>2.752271788904892</v>
+        <v>6.821127309893764</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>46.72</v>
+        <v>23.1</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G18">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H18">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I18">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J18">
-        <v>46.65999999999999</v>
+        <v>22.25999999999999</v>
       </c>
       <c r="K18">
-        <v>46.70764451699829</v>
+        <v>23.12486993241759</v>
       </c>
       <c r="L18">
-        <v>46.61235548300169</v>
+        <v>21.3951300675824</v>
       </c>
       <c r="M18">
-        <v>2.382225849914832</v>
+        <v>7.207249436813257</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>46.64</v>
+        <v>23.9</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G19">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H19">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I19">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J19">
-        <v>46.68399999999998</v>
+        <v>22.79999999999999</v>
       </c>
       <c r="K19">
-        <v>46.73567204273105</v>
+        <v>23.79331096171675</v>
       </c>
       <c r="L19">
-        <v>46.63232795726892</v>
+        <v>21.80668903828323</v>
       </c>
       <c r="M19">
-        <v>2.583602136553154</v>
+        <v>8.277591347639685</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1197,283 +1197,37 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>46.67</v>
+        <v>22.1</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G20">
-        <v>46.50519999999999</v>
+        <v>21.85263157894736</v>
       </c>
       <c r="H20">
-        <v>46.73707856017033</v>
+        <v>22.91531603146092</v>
       </c>
       <c r="I20">
-        <v>46.27332143982966</v>
+        <v>20.78994712643381</v>
       </c>
       <c r="J20">
-        <v>46.69199999999999</v>
+        <v>22.73999999999999</v>
       </c>
       <c r="K20">
-        <v>46.77342481194328</v>
+        <v>23.64184995056458</v>
       </c>
       <c r="L20">
-        <v>46.61057518805669</v>
+        <v>21.83815004943541</v>
       </c>
       <c r="M20">
-        <v>4.07124059716466</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>46.75</v>
-      </c>
-      <c r="D21">
-        <v>48</v>
-      </c>
-      <c r="E21">
-        <v>46</v>
-      </c>
-      <c r="F21">
-        <v>47</v>
-      </c>
-      <c r="G21">
-        <v>46.50519999999999</v>
-      </c>
-      <c r="H21">
-        <v>46.73707856017033</v>
-      </c>
-      <c r="I21">
-        <v>46.27332143982966</v>
-      </c>
-      <c r="J21">
-        <v>46.70799999999998</v>
-      </c>
-      <c r="K21">
-        <v>47.0648332944107</v>
-      </c>
-      <c r="L21">
-        <v>46.35116670558926</v>
-      </c>
-      <c r="M21">
-        <v>17.84166472053599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>46.54</v>
-      </c>
-      <c r="D22">
-        <v>48</v>
-      </c>
-      <c r="E22">
-        <v>46</v>
-      </c>
-      <c r="F22">
-        <v>47</v>
-      </c>
-      <c r="G22">
-        <v>46.50519999999999</v>
-      </c>
-      <c r="H22">
-        <v>46.73707856017033</v>
-      </c>
-      <c r="I22">
-        <v>46.27332143982966</v>
-      </c>
-      <c r="J22">
-        <v>46.66399999999999</v>
-      </c>
-      <c r="K22">
-        <v>47.01357116585897</v>
-      </c>
-      <c r="L22">
-        <v>46.314428834141</v>
-      </c>
-      <c r="M22">
-        <v>17.47855829294913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>45.87</v>
-      </c>
-      <c r="D23">
-        <v>48</v>
-      </c>
-      <c r="E23">
-        <v>46</v>
-      </c>
-      <c r="F23">
-        <v>47</v>
-      </c>
-      <c r="G23">
-        <v>46.50519999999999</v>
-      </c>
-      <c r="H23">
-        <v>46.73707856017033</v>
-      </c>
-      <c r="I23">
-        <v>46.27332143982966</v>
-      </c>
-      <c r="J23">
-        <v>46.49399999999999</v>
-      </c>
-      <c r="K23">
-        <v>46.82115439780018</v>
-      </c>
-      <c r="L23">
-        <v>46.16684560219979</v>
-      </c>
-      <c r="M23">
-        <v>16.35771989000965</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>46.37</v>
-      </c>
-      <c r="D24">
-        <v>48</v>
-      </c>
-      <c r="E24">
-        <v>46</v>
-      </c>
-      <c r="F24">
-        <v>47</v>
-      </c>
-      <c r="G24">
-        <v>46.50519999999999</v>
-      </c>
-      <c r="H24">
-        <v>46.73707856017033</v>
-      </c>
-      <c r="I24">
-        <v>46.27332143982966</v>
-      </c>
-      <c r="J24">
-        <v>46.43999999999998</v>
-      </c>
-      <c r="K24">
-        <v>46.68724481794368</v>
-      </c>
-      <c r="L24">
-        <v>46.19275518205629</v>
-      </c>
-      <c r="M24">
-        <v>12.36224089718476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>46.3</v>
-      </c>
-      <c r="D25">
-        <v>48</v>
-      </c>
-      <c r="E25">
-        <v>46</v>
-      </c>
-      <c r="F25">
-        <v>47</v>
-      </c>
-      <c r="G25">
-        <v>46.50519999999999</v>
-      </c>
-      <c r="H25">
-        <v>46.73707856017033</v>
-      </c>
-      <c r="I25">
-        <v>46.27332143982966</v>
-      </c>
-      <c r="J25">
-        <v>46.36599999999999</v>
-      </c>
-      <c r="K25">
-        <v>46.59505603390148</v>
-      </c>
-      <c r="L25">
-        <v>46.13694396609849</v>
-      </c>
-      <c r="M25">
-        <v>11.45280169507465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>46.3</v>
-      </c>
-      <c r="D26">
-        <v>48</v>
-      </c>
-      <c r="E26">
-        <v>46</v>
-      </c>
-      <c r="F26">
-        <v>47</v>
-      </c>
-      <c r="G26">
-        <v>46.50519999999999</v>
-      </c>
-      <c r="H26">
-        <v>46.73707856017033</v>
-      </c>
-      <c r="I26">
-        <v>46.27332143982966</v>
-      </c>
-      <c r="J26">
-        <v>46.27599999999999</v>
-      </c>
-      <c r="K26">
-        <v>46.31641451884347</v>
-      </c>
-      <c r="L26">
-        <v>46.23558548115651</v>
-      </c>
-      <c r="M26">
-        <v>2.020725942174195</v>
+        <v>7.51541625470488</v>
       </c>
     </row>
   </sheetData>

--- a/Output/df.xlsx
+++ b/Output/df.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>21.4</v>
+        <v>97.53061225</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>21.85263157894736</v>
+        <v>97.28676978899999</v>
       </c>
       <c r="H2">
-        <v>22.91531603146092</v>
+        <v>98.34541524787072</v>
       </c>
       <c r="I2">
-        <v>20.78994712643381</v>
+        <v>96.22812433012926</v>
       </c>
       <c r="J2">
-        <v>21.4</v>
+        <v>97.53061225</v>
       </c>
       <c r="K2">
-        <v>21.90332229568472</v>
+        <v>97.75472733311894</v>
       </c>
       <c r="L2">
-        <v>20.89667770431528</v>
+        <v>97.30649716688107</v>
       </c>
       <c r="M2">
-        <v>4.194352464039319</v>
+        <v>2.241150831189316</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>97.08238851</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>21.85263157894736</v>
+        <v>97.28676978899999</v>
       </c>
       <c r="H3">
-        <v>22.91531603146092</v>
+        <v>98.34541524787072</v>
       </c>
       <c r="I3">
-        <v>20.78994712643381</v>
+        <v>96.22812433012926</v>
       </c>
       <c r="J3">
-        <v>21.7</v>
+        <v>97.30650038</v>
       </c>
       <c r="K3">
-        <v>22.21881274720911</v>
+        <v>97.63132703959357</v>
       </c>
       <c r="L3">
-        <v>21.18118725279088</v>
+        <v>96.98167372040643</v>
       </c>
       <c r="M3">
-        <v>4.323439560075956</v>
+        <v>3.248266595935689</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>97.30442177</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>21.85263157894736</v>
+        <v>97.28676978899999</v>
       </c>
       <c r="H4">
-        <v>22.91531603146092</v>
+        <v>98.34541524787072</v>
       </c>
       <c r="I4">
-        <v>20.78994712643381</v>
+        <v>96.22812433012926</v>
       </c>
       <c r="J4">
-        <v>21.46666666666667</v>
+        <v>97.30580751000001</v>
       </c>
       <c r="K4">
-        <v>21.93889542479137</v>
+        <v>97.62138741361564</v>
       </c>
       <c r="L4">
-        <v>20.99443790854196</v>
+        <v>96.99022760638438</v>
       </c>
       <c r="M4">
-        <v>3.935239651039198</v>
+        <v>3.155799036156282</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>22.1</v>
+        <v>97.8425656</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>21.85263157894736</v>
+        <v>97.28676978899999</v>
       </c>
       <c r="H5">
-        <v>22.91531603146092</v>
+        <v>98.34541524787072</v>
       </c>
       <c r="I5">
-        <v>20.78994712643381</v>
+        <v>96.22812433012926</v>
       </c>
       <c r="J5">
-        <v>21.625</v>
+        <v>97.4399970325</v>
       </c>
       <c r="K5">
-        <v>22.16072380943915</v>
+        <v>98.48126556919443</v>
       </c>
       <c r="L5">
-        <v>21.08927619056085</v>
+        <v>96.39872849580557</v>
       </c>
       <c r="M5">
-        <v>4.464365078659624</v>
+        <v>10.41268536694432</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>21.3</v>
+        <v>97.12018141</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>21.85263157894736</v>
+        <v>97.28676978899999</v>
       </c>
       <c r="H6">
-        <v>22.91531603146092</v>
+        <v>98.34541524787072</v>
       </c>
       <c r="I6">
-        <v>20.78994712643381</v>
+        <v>96.22812433012926</v>
       </c>
       <c r="J6">
-        <v>21.56</v>
+        <v>97.376033908</v>
       </c>
       <c r="K6">
-        <v>22.35183331579317</v>
+        <v>98.3432615392164</v>
       </c>
       <c r="L6">
-        <v>20.76816668420683</v>
+        <v>96.40880627678359</v>
       </c>
       <c r="M6">
-        <v>6.598610964943052</v>
+        <v>9.67227631216403</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>22.2</v>
+        <v>99.56462585</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>21.85263157894736</v>
+        <v>97.28676978899999</v>
       </c>
       <c r="H7">
-        <v>22.91531603146092</v>
+        <v>98.34541524787072</v>
       </c>
       <c r="I7">
-        <v>20.78994712643381</v>
+        <v>96.22812433012926</v>
       </c>
       <c r="J7">
-        <v>21.72</v>
+        <v>97.782836628</v>
       </c>
       <c r="K7">
-        <v>23.08930639376291</v>
+        <v>98.98596320733988</v>
       </c>
       <c r="L7">
-        <v>20.35069360623708</v>
+        <v>96.57971004866012</v>
       </c>
       <c r="M7">
-        <v>11.41088661469096</v>
+        <v>12.0312657933988</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>97.80612245</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>21.85263157894736</v>
+        <v>97.28676978899999</v>
       </c>
       <c r="H8">
-        <v>22.91531603146092</v>
+        <v>98.34541524787072</v>
       </c>
       <c r="I8">
-        <v>20.78994712643381</v>
+        <v>96.22812433012926</v>
       </c>
       <c r="J8">
-        <v>21.92</v>
+        <v>97.92758341599999</v>
       </c>
       <c r="K8">
-        <v>23.26424700111252</v>
+        <v>99.20399790839288</v>
       </c>
       <c r="L8">
-        <v>20.57575299888748</v>
+        <v>96.6511689236071</v>
       </c>
       <c r="M8">
-        <v>11.20205834260431</v>
+        <v>12.76414492392888</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>19.4</v>
+        <v>96.30385488</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G9">
-        <v>21.85263157894736</v>
+        <v>97.28676978899999</v>
       </c>
       <c r="H9">
-        <v>22.91531603146092</v>
+        <v>98.34541524787072</v>
       </c>
       <c r="I9">
-        <v>20.78994712643381</v>
+        <v>96.22812433012926</v>
       </c>
       <c r="J9">
-        <v>21.6</v>
+        <v>97.72747003800001</v>
       </c>
       <c r="K9">
-        <v>22.95904378148756</v>
+        <v>99.27735135092496</v>
       </c>
       <c r="L9">
-        <v>20.24095621851244</v>
+        <v>96.17758872507505</v>
       </c>
       <c r="M9">
-        <v>11.32536484572964</v>
+        <v>15.49881312924953</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>21.7</v>
+        <v>96.73469387999999</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>21.85263157894736</v>
+        <v>97.28676978899999</v>
       </c>
       <c r="H10">
-        <v>22.91531603146092</v>
+        <v>98.34541524787072</v>
       </c>
       <c r="I10">
-        <v>20.78994712643381</v>
+        <v>96.22812433012926</v>
       </c>
       <c r="J10">
-        <v>21.52</v>
+        <v>97.505895694</v>
       </c>
       <c r="K10">
-        <v>23.03888116717537</v>
+        <v>98.43764242343023</v>
       </c>
       <c r="L10">
-        <v>20.00111883282463</v>
+        <v>96.57414896456977</v>
       </c>
       <c r="M10">
-        <v>12.65734305979471</v>
+        <v>9.317467294302304</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -828,406 +828,37 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>22.1</v>
+        <v>95.57823129000001</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>21.85263157894736</v>
+        <v>97.28676978899999</v>
       </c>
       <c r="H11">
-        <v>22.91531603146092</v>
+        <v>98.34541524787072</v>
       </c>
       <c r="I11">
-        <v>20.78994712643381</v>
+        <v>96.22812433012926</v>
       </c>
       <c r="J11">
-        <v>21.68</v>
+        <v>97.19750567000001</v>
       </c>
       <c r="K11">
-        <v>22.91571841452654</v>
+        <v>97.7819651867553</v>
       </c>
       <c r="L11">
-        <v>20.44428158547345</v>
+        <v>96.61304615324472</v>
       </c>
       <c r="M11">
-        <v>10.29765345438787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>19.9</v>
-      </c>
-      <c r="D12">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="G12">
-        <v>21.85263157894736</v>
-      </c>
-      <c r="H12">
-        <v>22.91531603146092</v>
-      </c>
-      <c r="I12">
-        <v>20.78994712643381</v>
-      </c>
-      <c r="J12">
-        <v>21.22</v>
-      </c>
-      <c r="K12">
-        <v>22.08775572599666</v>
-      </c>
-      <c r="L12">
-        <v>20.35224427400333</v>
-      </c>
-      <c r="M12">
-        <v>7.231297716638885</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>21.8</v>
-      </c>
-      <c r="D13">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>21.85263157894736</v>
-      </c>
-      <c r="H13">
-        <v>22.91531603146092</v>
-      </c>
-      <c r="I13">
-        <v>20.78994712643381</v>
-      </c>
-      <c r="J13">
-        <v>20.98</v>
-      </c>
-      <c r="K13">
-        <v>21.96843310345212</v>
-      </c>
-      <c r="L13">
-        <v>19.99156689654787</v>
-      </c>
-      <c r="M13">
-        <v>8.236942528767727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>21.2</v>
-      </c>
-      <c r="D14">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>14</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="G14">
-        <v>21.85263157894736</v>
-      </c>
-      <c r="H14">
-        <v>22.91531603146092</v>
-      </c>
-      <c r="I14">
-        <v>20.78994712643381</v>
-      </c>
-      <c r="J14">
-        <v>21.34</v>
-      </c>
-      <c r="K14">
-        <v>22.50318528188762</v>
-      </c>
-      <c r="L14">
-        <v>20.17681471811237</v>
-      </c>
-      <c r="M14">
-        <v>9.693210682396902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>22.4</v>
-      </c>
-      <c r="D15">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>21.85263157894736</v>
-      </c>
-      <c r="H15">
-        <v>22.91531603146092</v>
-      </c>
-      <c r="I15">
-        <v>20.78994712643381</v>
-      </c>
-      <c r="J15">
-        <v>21.48</v>
-      </c>
-      <c r="K15">
-        <v>22.13954529791365</v>
-      </c>
-      <c r="L15">
-        <v>20.82045470208635</v>
-      </c>
-      <c r="M15">
-        <v>5.496210815947075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>22.9</v>
-      </c>
-      <c r="D16">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
-      <c r="G16">
-        <v>21.85263157894736</v>
-      </c>
-      <c r="H16">
-        <v>22.91531603146092</v>
-      </c>
-      <c r="I16">
-        <v>20.78994712643381</v>
-      </c>
-      <c r="J16">
-        <v>21.64</v>
-      </c>
-      <c r="K16">
-        <v>22.44187280786918</v>
-      </c>
-      <c r="L16">
-        <v>20.83812719213082</v>
-      </c>
-      <c r="M16">
-        <v>6.68227339890984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>21.7</v>
-      </c>
-      <c r="D17">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <v>21.85263157894736</v>
-      </c>
-      <c r="H17">
-        <v>22.91531603146092</v>
-      </c>
-      <c r="I17">
-        <v>20.78994712643381</v>
-      </c>
-      <c r="J17">
-        <v>21.99999999999999</v>
-      </c>
-      <c r="K17">
-        <v>22.81853527718724</v>
-      </c>
-      <c r="L17">
-        <v>21.18146472281274</v>
-      </c>
-      <c r="M17">
-        <v>6.821127309893764</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>23.1</v>
-      </c>
-      <c r="D18">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>14</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>21.85263157894736</v>
-      </c>
-      <c r="H18">
-        <v>22.91531603146092</v>
-      </c>
-      <c r="I18">
-        <v>20.78994712643381</v>
-      </c>
-      <c r="J18">
-        <v>22.25999999999999</v>
-      </c>
-      <c r="K18">
-        <v>23.12486993241759</v>
-      </c>
-      <c r="L18">
-        <v>21.3951300675824</v>
-      </c>
-      <c r="M18">
-        <v>7.207249436813257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>23.9</v>
-      </c>
-      <c r="D19">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>14</v>
-      </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="G19">
-        <v>21.85263157894736</v>
-      </c>
-      <c r="H19">
-        <v>22.91531603146092</v>
-      </c>
-      <c r="I19">
-        <v>20.78994712643381</v>
-      </c>
-      <c r="J19">
-        <v>22.79999999999999</v>
-      </c>
-      <c r="K19">
-        <v>23.79331096171675</v>
-      </c>
-      <c r="L19">
-        <v>21.80668903828323</v>
-      </c>
-      <c r="M19">
-        <v>8.277591347639685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>22.1</v>
-      </c>
-      <c r="D20">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <v>20</v>
-      </c>
-      <c r="G20">
-        <v>21.85263157894736</v>
-      </c>
-      <c r="H20">
-        <v>22.91531603146092</v>
-      </c>
-      <c r="I20">
-        <v>20.78994712643381</v>
-      </c>
-      <c r="J20">
-        <v>22.73999999999999</v>
-      </c>
-      <c r="K20">
-        <v>23.64184995056458</v>
-      </c>
-      <c r="L20">
-        <v>21.83815004943541</v>
-      </c>
-      <c r="M20">
-        <v>7.51541625470488</v>
+        <v>5.844595167552882</v>
       </c>
     </row>
   </sheetData>
